--- a/Model_code/Model-concept.xlsx
+++ b/Model_code/Model-concept.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/www/html/final_project/Model_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/www/html/final_project/Model_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EC3742-984F-4E44-8E5B-94E1866529A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FA54E6-C40B-D349-966C-6369D6097A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="3080" windowWidth="38440" windowHeight="21160" activeTab="1" xr2:uid="{5F6F214D-DA23-E043-B15E-0FB778161D85}"/>
+    <workbookView xWindow="13320" yWindow="17740" windowWidth="47420" windowHeight="21780" xr2:uid="{5F6F214D-DA23-E043-B15E-0FB778161D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here (Cleaned data)" sheetId="4" r:id="rId1"/>
     <sheet name="Filter for &quot;technical jobs&quot;" sheetId="1" r:id="rId2"/>
     <sheet name="Groupby area_title sum() mean()" sheetId="2" r:id="rId3"/>
-    <sheet name="Sample demographics" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sample demographics" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="139">
   <si>
     <t>Abilene, TX</t>
   </si>
@@ -452,12 +453,15 @@
   <si>
     <t>With it's values  are sum()'d and mean()'d depending on which column we want to assign as Y</t>
   </si>
+  <si>
+    <t>Recalc this column, take in account population</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -512,6 +516,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -551,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -565,6 +576,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0842B1D-DED6-2A43-8901-53B4E2A702A4}">
-  <dimension ref="A1:XFD57"/>
+  <dimension ref="A1:XEP57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,7 +902,7 @@
     <col min="6" max="6" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -919,49 +931,58 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -993,49 +1014,58 @@
         <v>1000</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>85075</v>
       </c>
       <c r="L2">
-        <v>20.64</v>
+        <v>27</v>
       </c>
       <c r="M2">
-        <v>42930</v>
+        <v>49583</v>
       </c>
       <c r="N2">
-        <v>1.8</v>
+        <v>9368</v>
       </c>
       <c r="O2">
-        <v>9.1300000000000008</v>
+        <v>12687</v>
       </c>
       <c r="P2">
-        <v>11.4</v>
+        <v>6935</v>
       </c>
       <c r="Q2">
-        <v>16.41</v>
+        <v>25576</v>
       </c>
       <c r="R2">
-        <v>24.82</v>
+        <v>10738</v>
       </c>
       <c r="S2">
-        <v>36.229999999999997</v>
+        <v>29001</v>
       </c>
       <c r="T2">
-        <v>18990</v>
+        <v>2253</v>
       </c>
       <c r="U2">
-        <v>23710</v>
+        <v>53385</v>
       </c>
       <c r="V2">
-        <v>34130</v>
+        <v>8597</v>
       </c>
       <c r="W2">
-        <v>51620</v>
+        <v>18241</v>
       </c>
       <c r="X2">
-        <v>75370</v>
+        <v>524</v>
+      </c>
+      <c r="Y2">
+        <v>15</v>
+      </c>
+      <c r="Z2">
+        <v>1860</v>
+      </c>
+      <c r="AA2">
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1067,49 +1097,58 @@
         <v>44.067999999999998</v>
       </c>
       <c r="K3">
-        <v>0.77</v>
+        <v>85075</v>
       </c>
       <c r="L3">
-        <v>42.87</v>
+        <v>27</v>
       </c>
       <c r="M3">
-        <v>89160</v>
+        <v>49583</v>
       </c>
       <c r="N3">
-        <v>2.2000000000000002</v>
+        <v>9368</v>
       </c>
       <c r="O3">
-        <v>17.38</v>
+        <v>12687</v>
       </c>
       <c r="P3">
-        <v>26.74</v>
+        <v>6935</v>
       </c>
       <c r="Q3">
-        <v>36.369999999999997</v>
+        <v>25576</v>
       </c>
       <c r="R3">
-        <v>51.68</v>
+        <v>10738</v>
       </c>
       <c r="S3">
-        <v>73.88</v>
+        <v>29001</v>
       </c>
       <c r="T3">
-        <v>36150</v>
+        <v>2253</v>
       </c>
       <c r="U3">
-        <v>55620</v>
+        <v>53385</v>
       </c>
       <c r="V3">
-        <v>75640</v>
+        <v>8597</v>
       </c>
       <c r="W3">
-        <v>107500</v>
+        <v>18241</v>
       </c>
       <c r="X3">
-        <v>153670</v>
+        <v>524</v>
+      </c>
+      <c r="Y3">
+        <v>15</v>
+      </c>
+      <c r="Z3">
+        <v>1860</v>
+      </c>
+      <c r="AA3">
+        <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1141,49 +1180,58 @@
         <v>20.036000000000001</v>
       </c>
       <c r="K4">
-        <v>1.19</v>
+        <v>85075</v>
       </c>
       <c r="L4">
-        <v>40.380000000000003</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>83990</v>
+        <v>49583</v>
       </c>
       <c r="N4">
-        <v>3.5</v>
+        <v>9368</v>
       </c>
       <c r="O4">
-        <v>12.67</v>
+        <v>12687</v>
       </c>
       <c r="P4">
-        <v>24.02</v>
+        <v>6935</v>
       </c>
       <c r="Q4">
-        <v>32.96</v>
+        <v>25576</v>
       </c>
       <c r="R4">
-        <v>50.11</v>
+        <v>10738</v>
       </c>
       <c r="S4">
-        <v>72.930000000000007</v>
+        <v>29001</v>
       </c>
       <c r="T4">
-        <v>26350</v>
+        <v>2253</v>
       </c>
       <c r="U4">
-        <v>49960</v>
+        <v>53385</v>
       </c>
       <c r="V4">
-        <v>68550</v>
+        <v>8597</v>
       </c>
       <c r="W4">
-        <v>104230</v>
+        <v>18241</v>
       </c>
       <c r="X4">
-        <v>151700</v>
+        <v>524</v>
+      </c>
+      <c r="Y4">
+        <v>15</v>
+      </c>
+      <c r="Z4">
+        <v>1860</v>
+      </c>
+      <c r="AA4">
+        <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1215,49 +1263,58 @@
         <v>0.54900000000000004</v>
       </c>
       <c r="K5">
-        <v>0.94</v>
+        <v>85075</v>
       </c>
       <c r="L5">
-        <v>45.93</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>95540</v>
+        <v>49583</v>
       </c>
       <c r="N5">
-        <v>20.7</v>
+        <v>9368</v>
       </c>
       <c r="O5">
-        <v>28.71</v>
+        <v>12687</v>
       </c>
       <c r="P5">
-        <v>32.78</v>
+        <v>6935</v>
       </c>
       <c r="Q5">
-        <v>36.24</v>
+        <v>25576</v>
       </c>
       <c r="R5">
-        <v>41.23</v>
+        <v>10738</v>
       </c>
       <c r="S5">
-        <v>83.81</v>
+        <v>29001</v>
       </c>
       <c r="T5">
-        <v>59710</v>
+        <v>2253</v>
       </c>
       <c r="U5">
-        <v>68180</v>
+        <v>53385</v>
       </c>
       <c r="V5">
-        <v>75380</v>
+        <v>8597</v>
       </c>
       <c r="W5">
-        <v>85760</v>
+        <v>18241</v>
       </c>
       <c r="X5">
-        <v>174320</v>
+        <v>524</v>
+      </c>
+      <c r="Y5">
+        <v>15</v>
+      </c>
+      <c r="Z5">
+        <v>1860</v>
+      </c>
+      <c r="AA5">
+        <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1289,49 +1346,58 @@
         <v>2.0449999999999999</v>
       </c>
       <c r="K6">
-        <v>0.92</v>
+        <v>85075</v>
       </c>
       <c r="L6">
-        <v>37.79</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>78600</v>
+        <v>49583</v>
       </c>
       <c r="N6">
-        <v>3.5</v>
+        <v>9368</v>
       </c>
       <c r="O6">
-        <v>24.93</v>
+        <v>12687</v>
       </c>
       <c r="P6">
-        <v>28.28</v>
+        <v>6935</v>
       </c>
       <c r="Q6">
-        <v>35.06</v>
+        <v>25576</v>
       </c>
       <c r="R6">
-        <v>45.45</v>
+        <v>10738</v>
       </c>
       <c r="S6">
-        <v>55.25</v>
+        <v>29001</v>
       </c>
       <c r="T6">
-        <v>51850</v>
+        <v>2253</v>
       </c>
       <c r="U6">
-        <v>58820</v>
+        <v>53385</v>
       </c>
       <c r="V6">
-        <v>72920</v>
+        <v>8597</v>
       </c>
       <c r="W6">
-        <v>94530</v>
+        <v>18241</v>
       </c>
       <c r="X6">
-        <v>114920</v>
+        <v>524</v>
+      </c>
+      <c r="Y6">
+        <v>15</v>
+      </c>
+      <c r="Z6">
+        <v>1860</v>
+      </c>
+      <c r="AA6">
+        <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1363,49 +1429,58 @@
         <v>1.054</v>
       </c>
       <c r="K7">
-        <v>0.32</v>
+        <v>85075</v>
       </c>
       <c r="L7">
-        <v>59.15</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>123040</v>
+        <v>49583</v>
       </c>
       <c r="N7">
-        <v>8.5</v>
+        <v>9368</v>
       </c>
       <c r="O7">
-        <v>26.29</v>
+        <v>12687</v>
       </c>
       <c r="P7">
-        <v>35.72</v>
+        <v>6935</v>
       </c>
       <c r="Q7">
-        <v>56.28</v>
+        <v>25576</v>
       </c>
       <c r="R7">
-        <v>71.040000000000006</v>
+        <v>10738</v>
       </c>
       <c r="S7">
-        <v>97.75</v>
+        <v>29001</v>
       </c>
       <c r="T7">
-        <v>54690</v>
+        <v>2253</v>
       </c>
       <c r="U7">
-        <v>74310</v>
+        <v>53385</v>
       </c>
       <c r="V7">
-        <v>117060</v>
+        <v>8597</v>
       </c>
       <c r="W7">
-        <v>147760</v>
+        <v>18241</v>
       </c>
       <c r="X7">
-        <v>203330</v>
+        <v>524</v>
+      </c>
+      <c r="Y7">
+        <v>15</v>
+      </c>
+      <c r="Z7">
+        <v>1860</v>
+      </c>
+      <c r="AA7">
+        <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1437,49 +1512,58 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="K8">
-        <v>0.59</v>
+        <v>85075</v>
       </c>
       <c r="L8">
-        <v>54.65</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>113680</v>
+        <v>49583</v>
       </c>
       <c r="N8">
-        <v>12</v>
+        <v>9368</v>
       </c>
       <c r="O8">
-        <v>29.2</v>
+        <v>12687</v>
       </c>
       <c r="P8">
-        <v>36.76</v>
+        <v>6935</v>
       </c>
       <c r="Q8">
-        <v>47.44</v>
+        <v>25576</v>
       </c>
       <c r="R8">
-        <v>64.489999999999995</v>
+        <v>10738</v>
       </c>
       <c r="S8">
-        <v>84.92</v>
+        <v>29001</v>
       </c>
       <c r="T8">
-        <v>60730</v>
+        <v>2253</v>
       </c>
       <c r="U8">
-        <v>76460</v>
+        <v>53385</v>
       </c>
       <c r="V8">
-        <v>98680</v>
+        <v>8597</v>
       </c>
       <c r="W8">
-        <v>134140</v>
+        <v>18241</v>
       </c>
       <c r="X8">
-        <v>176630</v>
+        <v>524</v>
+      </c>
+      <c r="Y8">
+        <v>15</v>
+      </c>
+      <c r="Z8">
+        <v>1860</v>
+      </c>
+      <c r="AA8">
+        <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1511,49 +1595,58 @@
         <v>0.89</v>
       </c>
       <c r="K9">
-        <v>0.94</v>
+        <v>85075</v>
       </c>
       <c r="L9">
-        <v>40.880000000000003</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>85030</v>
+        <v>49583</v>
       </c>
       <c r="N9">
-        <v>3.8</v>
+        <v>9368</v>
       </c>
       <c r="O9">
-        <v>30.53</v>
+        <v>12687</v>
       </c>
       <c r="P9">
-        <v>34.409999999999997</v>
+        <v>6935</v>
       </c>
       <c r="Q9">
-        <v>39.630000000000003</v>
+        <v>25576</v>
       </c>
       <c r="R9">
-        <v>47.38</v>
+        <v>10738</v>
       </c>
       <c r="S9">
-        <v>51.38</v>
+        <v>29001</v>
       </c>
       <c r="T9">
-        <v>63500</v>
+        <v>2253</v>
       </c>
       <c r="U9">
-        <v>71580</v>
+        <v>53385</v>
       </c>
       <c r="V9">
-        <v>82430</v>
+        <v>8597</v>
       </c>
       <c r="W9">
-        <v>98550</v>
+        <v>18241</v>
       </c>
       <c r="X9">
-        <v>106880</v>
+        <v>524</v>
+      </c>
+      <c r="Y9">
+        <v>15</v>
+      </c>
+      <c r="Z9">
+        <v>1860</v>
+      </c>
+      <c r="AA9">
+        <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1585,49 +1678,58 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="K10">
-        <v>0.86</v>
+        <v>85075</v>
       </c>
       <c r="L10">
-        <v>31.36</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>65240</v>
+        <v>49583</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>9368</v>
       </c>
       <c r="O10">
-        <v>16.96</v>
+        <v>12687</v>
       </c>
       <c r="P10">
-        <v>19.39</v>
+        <v>6935</v>
       </c>
       <c r="Q10">
-        <v>23.41</v>
+        <v>25576</v>
       </c>
       <c r="R10">
-        <v>39.57</v>
+        <v>10738</v>
       </c>
       <c r="S10">
-        <v>57.38</v>
+        <v>29001</v>
       </c>
       <c r="T10">
-        <v>35270</v>
+        <v>2253</v>
       </c>
       <c r="U10">
-        <v>40330</v>
+        <v>53385</v>
       </c>
       <c r="V10">
-        <v>48690</v>
+        <v>8597</v>
       </c>
       <c r="W10">
-        <v>82310</v>
+        <v>18241</v>
       </c>
       <c r="X10">
-        <v>119360</v>
+        <v>524</v>
+      </c>
+      <c r="Y10">
+        <v>15</v>
+      </c>
+      <c r="Z10">
+        <v>1860</v>
+      </c>
+      <c r="AA10">
+        <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1658,50 +1760,8 @@
       <c r="J11" s="4">
         <v>2.4329999999999998</v>
       </c>
-      <c r="K11">
-        <v>1.18</v>
-      </c>
-      <c r="L11">
-        <v>37</v>
-      </c>
-      <c r="M11">
-        <v>76950</v>
-      </c>
-      <c r="N11">
-        <v>6.7</v>
-      </c>
-      <c r="O11">
-        <v>18.13</v>
-      </c>
-      <c r="P11">
-        <v>26.34</v>
-      </c>
-      <c r="Q11">
-        <v>30.71</v>
-      </c>
-      <c r="R11">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="S11">
-        <v>67.2</v>
-      </c>
-      <c r="T11">
-        <v>37710</v>
-      </c>
-      <c r="U11">
-        <v>54780</v>
-      </c>
-      <c r="V11">
-        <v>63870</v>
-      </c>
-      <c r="W11">
-        <v>84650</v>
-      </c>
-      <c r="X11">
-        <v>139770</v>
-      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1732,50 +1792,8 @@
       <c r="J12" s="4">
         <v>0.81399999999999995</v>
       </c>
-      <c r="K12">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L12">
-        <v>26.52</v>
-      </c>
-      <c r="M12">
-        <v>55150</v>
-      </c>
-      <c r="N12">
-        <v>8.6</v>
-      </c>
-      <c r="O12">
-        <v>16.27</v>
-      </c>
-      <c r="P12">
-        <v>18.170000000000002</v>
-      </c>
-      <c r="Q12">
-        <v>23.34</v>
-      </c>
-      <c r="R12">
-        <v>32.69</v>
-      </c>
-      <c r="S12">
-        <v>44.64</v>
-      </c>
-      <c r="T12">
-        <v>33850</v>
-      </c>
-      <c r="U12">
-        <v>37780</v>
-      </c>
-      <c r="V12">
-        <v>48550</v>
-      </c>
-      <c r="W12">
-        <v>67990</v>
-      </c>
-      <c r="X12">
-        <v>92850</v>
-      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1806,50 +1824,8 @@
       <c r="J13" s="4">
         <v>3.073</v>
       </c>
-      <c r="K13">
-        <v>1.06</v>
-      </c>
-      <c r="L13">
-        <v>51.45</v>
-      </c>
-      <c r="M13">
-        <v>107010</v>
-      </c>
-      <c r="N13">
-        <v>6.5</v>
-      </c>
-      <c r="O13">
-        <v>26.8</v>
-      </c>
-      <c r="P13">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="Q13">
-        <v>46.9</v>
-      </c>
-      <c r="R13">
-        <v>60.5</v>
-      </c>
-      <c r="S13">
-        <v>76.16</v>
-      </c>
-      <c r="T13">
-        <v>55740</v>
-      </c>
-      <c r="U13">
-        <v>72180</v>
-      </c>
-      <c r="V13">
-        <v>97560</v>
-      </c>
-      <c r="W13">
-        <v>125840</v>
-      </c>
-      <c r="X13">
-        <v>158420</v>
-      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1880,50 +1856,8 @@
       <c r="J14" s="4">
         <v>0.94799999999999995</v>
       </c>
-      <c r="K14">
-        <v>0.85</v>
-      </c>
-      <c r="L14">
-        <v>30.01</v>
-      </c>
-      <c r="M14">
-        <v>62420</v>
-      </c>
-      <c r="N14">
-        <v>3.4</v>
-      </c>
-      <c r="O14">
-        <v>20.55</v>
-      </c>
-      <c r="P14">
-        <v>24.24</v>
-      </c>
-      <c r="Q14">
-        <v>28.5</v>
-      </c>
-      <c r="R14">
-        <v>35.11</v>
-      </c>
-      <c r="S14">
-        <v>42.45</v>
-      </c>
-      <c r="T14">
-        <v>42750</v>
-      </c>
-      <c r="U14">
-        <v>50410</v>
-      </c>
-      <c r="V14">
-        <v>59280</v>
-      </c>
-      <c r="W14">
-        <v>73020</v>
-      </c>
-      <c r="X14">
-        <v>88300</v>
-      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1954,50 +1888,8 @@
       <c r="J15" s="4">
         <v>0.60099999999999998</v>
       </c>
-      <c r="K15">
-        <v>0.18</v>
-      </c>
-      <c r="L15">
-        <v>45.88</v>
-      </c>
-      <c r="M15">
-        <v>95440</v>
-      </c>
-      <c r="N15">
-        <v>5.9</v>
-      </c>
-      <c r="O15">
-        <v>17.13</v>
-      </c>
-      <c r="P15">
-        <v>33.29</v>
-      </c>
-      <c r="Q15">
-        <v>44.76</v>
-      </c>
-      <c r="R15">
-        <v>56.43</v>
-      </c>
-      <c r="S15">
-        <v>77.790000000000006</v>
-      </c>
-      <c r="T15">
-        <v>35630</v>
-      </c>
-      <c r="U15">
-        <v>69250</v>
-      </c>
-      <c r="V15">
-        <v>93090</v>
-      </c>
-      <c r="W15">
-        <v>117380</v>
-      </c>
-      <c r="X15">
-        <v>161810</v>
-      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>18</v>
       </c>
@@ -2028,50 +1920,8 @@
       <c r="J16" s="4">
         <v>32.515000000000001</v>
       </c>
-      <c r="K16">
-        <v>0.54</v>
-      </c>
-      <c r="L16">
-        <v>32.28</v>
-      </c>
-      <c r="M16">
-        <v>67140</v>
-      </c>
-      <c r="N16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O16">
-        <v>16.48</v>
-      </c>
-      <c r="P16">
-        <v>21.89</v>
-      </c>
-      <c r="Q16">
-        <v>29.35</v>
-      </c>
-      <c r="R16">
-        <v>38.69</v>
-      </c>
-      <c r="S16">
-        <v>50.26</v>
-      </c>
-      <c r="T16">
-        <v>34280</v>
-      </c>
-      <c r="U16">
-        <v>45530</v>
-      </c>
-      <c r="V16">
-        <v>61040</v>
-      </c>
-      <c r="W16">
-        <v>80470</v>
-      </c>
-      <c r="X16">
-        <v>104530</v>
-      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>19</v>
       </c>
@@ -2102,50 +1952,8 @@
       <c r="J17" s="4">
         <v>1.571</v>
       </c>
-      <c r="K17">
-        <v>0.52</v>
-      </c>
-      <c r="L17">
-        <v>25</v>
-      </c>
-      <c r="M17">
-        <v>52000</v>
-      </c>
-      <c r="N17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O17">
-        <v>13.71</v>
-      </c>
-      <c r="P17">
-        <v>19.25</v>
-      </c>
-      <c r="Q17">
-        <v>23.88</v>
-      </c>
-      <c r="R17">
-        <v>31.15</v>
-      </c>
-      <c r="S17">
-        <v>38.119999999999997</v>
-      </c>
-      <c r="T17">
-        <v>28510</v>
-      </c>
-      <c r="U17">
-        <v>40050</v>
-      </c>
-      <c r="V17">
-        <v>49670</v>
-      </c>
-      <c r="W17">
-        <v>64790</v>
-      </c>
-      <c r="X17">
-        <v>79280</v>
-      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20</v>
       </c>
@@ -2176,50 +1984,8 @@
       <c r="J18" s="4">
         <v>1.371</v>
       </c>
-      <c r="K18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L18">
-        <v>31.65</v>
-      </c>
-      <c r="M18">
-        <v>65840</v>
-      </c>
-      <c r="N18">
-        <v>9.9</v>
-      </c>
-      <c r="O18">
-        <v>18.02</v>
-      </c>
-      <c r="P18">
-        <v>21.39</v>
-      </c>
-      <c r="Q18">
-        <v>26.61</v>
-      </c>
-      <c r="R18">
-        <v>40.01</v>
-      </c>
-      <c r="S18">
-        <v>55.92</v>
-      </c>
-      <c r="T18">
-        <v>37470</v>
-      </c>
-      <c r="U18">
-        <v>44500</v>
-      </c>
-      <c r="V18">
-        <v>55340</v>
-      </c>
-      <c r="W18">
-        <v>83220</v>
-      </c>
-      <c r="X18">
-        <v>116310</v>
-      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>21</v>
       </c>
@@ -2250,50 +2016,8 @@
       <c r="J19" s="4">
         <v>1.1659999999999999</v>
       </c>
-      <c r="K19">
-        <v>0.81</v>
-      </c>
-      <c r="L19">
-        <v>33.5</v>
-      </c>
-      <c r="M19">
-        <v>69680</v>
-      </c>
-      <c r="N19">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O19">
-        <v>17.29</v>
-      </c>
-      <c r="P19">
-        <v>21.67</v>
-      </c>
-      <c r="Q19">
-        <v>31.81</v>
-      </c>
-      <c r="R19">
-        <v>42.91</v>
-      </c>
-      <c r="S19">
-        <v>50.05</v>
-      </c>
-      <c r="T19">
-        <v>35960</v>
-      </c>
-      <c r="U19">
-        <v>45080</v>
-      </c>
-      <c r="V19">
-        <v>66160</v>
-      </c>
-      <c r="W19">
-        <v>89240</v>
-      </c>
-      <c r="X19">
-        <v>104100</v>
-      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>22</v>
       </c>
@@ -2324,50 +2048,8 @@
       <c r="J20" s="4">
         <v>2.198</v>
       </c>
-      <c r="K20">
-        <v>0.47</v>
-      </c>
-      <c r="L20">
-        <v>25.43</v>
-      </c>
-      <c r="M20">
-        <v>52890</v>
-      </c>
-      <c r="N20">
-        <v>2.4</v>
-      </c>
-      <c r="O20">
-        <v>15.18</v>
-      </c>
-      <c r="P20">
-        <v>19.52</v>
-      </c>
-      <c r="Q20">
-        <v>24.91</v>
-      </c>
-      <c r="R20">
-        <v>31.02</v>
-      </c>
-      <c r="S20">
-        <v>37.020000000000003</v>
-      </c>
-      <c r="T20">
-        <v>31580</v>
-      </c>
-      <c r="U20">
-        <v>40610</v>
-      </c>
-      <c r="V20">
-        <v>51810</v>
-      </c>
-      <c r="W20">
-        <v>64510</v>
-      </c>
-      <c r="X20">
-        <v>77010</v>
-      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>23</v>
       </c>
@@ -2398,50 +2080,8 @@
       <c r="J21" s="4">
         <v>0.64300000000000002</v>
       </c>
-      <c r="K21">
-        <v>0.49</v>
-      </c>
-      <c r="L21">
-        <v>35.06</v>
-      </c>
-      <c r="M21">
-        <v>72920</v>
-      </c>
-      <c r="N21">
-        <v>3.1</v>
-      </c>
-      <c r="O21">
-        <v>26.56</v>
-      </c>
-      <c r="P21">
-        <v>29.25</v>
-      </c>
-      <c r="Q21">
-        <v>32.82</v>
-      </c>
-      <c r="R21">
-        <v>41.47</v>
-      </c>
-      <c r="S21">
-        <v>47.95</v>
-      </c>
-      <c r="T21">
-        <v>55240</v>
-      </c>
-      <c r="U21">
-        <v>60840</v>
-      </c>
-      <c r="V21">
-        <v>68270</v>
-      </c>
-      <c r="W21">
-        <v>86260</v>
-      </c>
-      <c r="X21">
-        <v>99740</v>
-      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>24</v>
       </c>
@@ -2472,50 +2112,8 @@
       <c r="J22" s="4">
         <v>1.423</v>
       </c>
-      <c r="K22">
-        <v>0.27</v>
-      </c>
-      <c r="L22">
-        <v>37.93</v>
-      </c>
-      <c r="M22">
-        <v>78890</v>
-      </c>
-      <c r="N22">
-        <v>5.3</v>
-      </c>
-      <c r="O22">
-        <v>22.22</v>
-      </c>
-      <c r="P22">
-        <v>27.13</v>
-      </c>
-      <c r="Q22">
-        <v>36.19</v>
-      </c>
-      <c r="R22">
-        <v>46.15</v>
-      </c>
-      <c r="S22">
-        <v>58.39</v>
-      </c>
-      <c r="T22">
-        <v>46220</v>
-      </c>
-      <c r="U22">
-        <v>56430</v>
-      </c>
-      <c r="V22">
-        <v>75280</v>
-      </c>
-      <c r="W22">
-        <v>96000</v>
-      </c>
-      <c r="X22">
-        <v>121450</v>
-      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>25</v>
       </c>
@@ -2546,50 +2144,8 @@
       <c r="J23" s="4">
         <v>0.53100000000000003</v>
       </c>
-      <c r="K23">
-        <v>0.9</v>
-      </c>
-      <c r="L23">
-        <v>18.46</v>
-      </c>
-      <c r="M23">
-        <v>38390</v>
-      </c>
-      <c r="N23">
-        <v>9</v>
-      </c>
-      <c r="O23">
-        <v>10.14</v>
-      </c>
-      <c r="P23">
-        <v>11.13</v>
-      </c>
-      <c r="Q23">
-        <v>17.37</v>
-      </c>
-      <c r="R23">
-        <v>23.53</v>
-      </c>
-      <c r="S23">
-        <v>31.2</v>
-      </c>
-      <c r="T23">
-        <v>21090</v>
-      </c>
-      <c r="U23">
-        <v>23160</v>
-      </c>
-      <c r="V23">
-        <v>36140</v>
-      </c>
-      <c r="W23">
-        <v>48940</v>
-      </c>
-      <c r="X23">
-        <v>64890</v>
-      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>26</v>
       </c>
@@ -2620,50 +2176,8 @@
       <c r="J24" s="4">
         <v>1.4239999999999999</v>
       </c>
-      <c r="K24">
-        <v>0.62</v>
-      </c>
-      <c r="L24">
-        <v>21.7</v>
-      </c>
-      <c r="M24">
-        <v>45140</v>
-      </c>
-      <c r="N24">
-        <v>3.9</v>
-      </c>
-      <c r="O24">
-        <v>11.41</v>
-      </c>
-      <c r="P24">
-        <v>15.99</v>
-      </c>
-      <c r="Q24">
-        <v>21.86</v>
-      </c>
-      <c r="R24">
-        <v>25.79</v>
-      </c>
-      <c r="S24">
-        <v>32.9</v>
-      </c>
-      <c r="T24">
-        <v>23730</v>
-      </c>
-      <c r="U24">
-        <v>33260</v>
-      </c>
-      <c r="V24">
-        <v>45480</v>
-      </c>
-      <c r="W24">
-        <v>53640</v>
-      </c>
-      <c r="X24">
-        <v>68430</v>
-      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>27</v>
       </c>
@@ -2694,50 +2208,8 @@
       <c r="J25" s="4">
         <v>1.0669999999999999</v>
       </c>
-      <c r="K25">
-        <v>0.22</v>
-      </c>
-      <c r="L25">
-        <v>21.64</v>
-      </c>
-      <c r="M25">
-        <v>45010</v>
-      </c>
-      <c r="N25">
-        <v>5.5</v>
-      </c>
-      <c r="O25">
-        <v>14.04</v>
-      </c>
-      <c r="P25">
-        <v>16.96</v>
-      </c>
-      <c r="Q25">
-        <v>19.79</v>
-      </c>
-      <c r="R25">
-        <v>24.38</v>
-      </c>
-      <c r="S25">
-        <v>30.89</v>
-      </c>
-      <c r="T25">
-        <v>29200</v>
-      </c>
-      <c r="U25">
-        <v>35290</v>
-      </c>
-      <c r="V25">
-        <v>41170</v>
-      </c>
-      <c r="W25">
-        <v>50710</v>
-      </c>
-      <c r="X25">
-        <v>64260</v>
-      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>28</v>
       </c>
@@ -2768,50 +2240,8 @@
       <c r="J26" s="4">
         <v>5.5540000000000003</v>
       </c>
-      <c r="K26">
-        <v>0.53</v>
-      </c>
-      <c r="L26">
-        <v>31.78</v>
-      </c>
-      <c r="M26">
-        <v>66100</v>
-      </c>
-      <c r="N26">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O26">
-        <v>18.940000000000001</v>
-      </c>
-      <c r="P26">
-        <v>25.44</v>
-      </c>
-      <c r="Q26">
-        <v>30.54</v>
-      </c>
-      <c r="R26">
-        <v>37.96</v>
-      </c>
-      <c r="S26">
-        <v>45.49</v>
-      </c>
-      <c r="T26">
-        <v>39390</v>
-      </c>
-      <c r="U26">
-        <v>52910</v>
-      </c>
-      <c r="V26">
-        <v>63520</v>
-      </c>
-      <c r="W26">
-        <v>78950</v>
-      </c>
-      <c r="X26">
-        <v>94620</v>
-      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>29</v>
       </c>
@@ -2842,50 +2272,8 @@
       <c r="J27" s="4">
         <v>6.9740000000000002</v>
       </c>
-      <c r="K27">
-        <v>0.76</v>
-      </c>
-      <c r="L27">
-        <v>33.92</v>
-      </c>
-      <c r="M27">
-        <v>70550</v>
-      </c>
-      <c r="N27">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O27">
-        <v>17.12</v>
-      </c>
-      <c r="P27">
-        <v>24.26</v>
-      </c>
-      <c r="Q27">
-        <v>30.97</v>
-      </c>
-      <c r="R27">
-        <v>40.590000000000003</v>
-      </c>
-      <c r="S27">
-        <v>55.27</v>
-      </c>
-      <c r="T27">
-        <v>35600</v>
-      </c>
-      <c r="U27">
-        <v>50460</v>
-      </c>
-      <c r="V27">
-        <v>64410</v>
-      </c>
-      <c r="W27">
-        <v>84420</v>
-      </c>
-      <c r="X27">
-        <v>114970</v>
-      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>31</v>
       </c>
@@ -2916,50 +2304,8 @@
       <c r="J28" s="4">
         <v>1.464</v>
       </c>
-      <c r="K28">
-        <v>0.93</v>
-      </c>
-      <c r="L28">
-        <v>46.72</v>
-      </c>
-      <c r="M28">
-        <v>97180</v>
-      </c>
-      <c r="N28">
-        <v>10</v>
-      </c>
-      <c r="O28">
-        <v>27.55</v>
-      </c>
-      <c r="P28">
-        <v>33.92</v>
-      </c>
-      <c r="Q28">
-        <v>39.630000000000003</v>
-      </c>
-      <c r="R28">
-        <v>57.14</v>
-      </c>
-      <c r="S28">
-        <v>74.67</v>
-      </c>
-      <c r="T28">
-        <v>57300</v>
-      </c>
-      <c r="U28">
-        <v>70560</v>
-      </c>
-      <c r="V28">
-        <v>82420</v>
-      </c>
-      <c r="W28">
-        <v>118840</v>
-      </c>
-      <c r="X28">
-        <v>155310</v>
-      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>32</v>
       </c>
@@ -2990,50 +2336,8 @@
       <c r="J29" s="4">
         <v>2.5339999999999998</v>
       </c>
-      <c r="K29">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="L29">
-        <v>35.14</v>
-      </c>
-      <c r="M29">
-        <v>73090</v>
-      </c>
-      <c r="N29">
-        <v>3.6</v>
-      </c>
-      <c r="O29">
-        <v>15.38</v>
-      </c>
-      <c r="P29">
-        <v>22.18</v>
-      </c>
-      <c r="Q29">
-        <v>33.049999999999997</v>
-      </c>
-      <c r="R29">
-        <v>42.7</v>
-      </c>
-      <c r="S29">
-        <v>59.21</v>
-      </c>
-      <c r="T29">
-        <v>31990</v>
-      </c>
-      <c r="U29">
-        <v>46130</v>
-      </c>
-      <c r="V29">
-        <v>68740</v>
-      </c>
-      <c r="W29">
-        <v>88820</v>
-      </c>
-      <c r="X29">
-        <v>123150</v>
-      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>33</v>
       </c>
@@ -3064,55 +2368,13 @@
       <c r="J30" s="4">
         <v>1.2869999999999999</v>
       </c>
-      <c r="K30">
-        <v>0.39</v>
-      </c>
-      <c r="L30">
-        <v>30.3</v>
-      </c>
-      <c r="M30">
-        <v>63030</v>
-      </c>
-      <c r="N30">
-        <v>6.5</v>
-      </c>
-      <c r="O30">
-        <v>16.75</v>
-      </c>
-      <c r="P30">
-        <v>21.14</v>
-      </c>
-      <c r="Q30">
-        <v>31.82</v>
-      </c>
-      <c r="R30">
-        <v>37.5</v>
-      </c>
-      <c r="S30">
-        <v>41.47</v>
-      </c>
-      <c r="T30">
-        <v>34830</v>
-      </c>
-      <c r="U30">
-        <v>43980</v>
-      </c>
-      <c r="V30">
-        <v>66190</v>
-      </c>
-      <c r="W30">
-        <v>77990</v>
-      </c>
-      <c r="X30">
-        <v>86250</v>
-      </c>
     </row>
-    <row r="33" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16370" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16370" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -19483,28 +18745,14 @@
       <c r="XEN36" s="1"/>
       <c r="XEO36" s="1"/>
       <c r="XEP36" s="1"/>
-      <c r="XEQ36" s="1"/>
-      <c r="XER36" s="1"/>
-      <c r="XES36" s="1"/>
-      <c r="XET36" s="1"/>
-      <c r="XEU36" s="1"/>
-      <c r="XEV36" s="1"/>
-      <c r="XEW36" s="1"/>
-      <c r="XEX36" s="1"/>
-      <c r="XEY36" s="1"/>
-      <c r="XEZ36" s="1"/>
-      <c r="XFA36" s="1"/>
-      <c r="XFB36" s="1"/>
-      <c r="XFC36" s="1"/>
-      <c r="XFD36" s="1"/>
     </row>
-    <row r="39" spans="1:16384" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16370" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:16384" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:16384" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16370" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:16370" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>1</v>
       </c>
@@ -19512,22 +18760,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:16384" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16370" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:16384" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:16384" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:16384" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16370" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:16370" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:16370" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:16384" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16370" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:16384" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16370" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>2</v>
       </c>
@@ -19535,12 +18783,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:16384" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16370" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16370" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -35911,22 +35159,8 @@
       <c r="XEN49" s="1"/>
       <c r="XEO49" s="1"/>
       <c r="XEP49" s="1"/>
-      <c r="XEQ49" s="1"/>
-      <c r="XER49" s="1"/>
-      <c r="XES49" s="1"/>
-      <c r="XET49" s="1"/>
-      <c r="XEU49" s="1"/>
-      <c r="XEV49" s="1"/>
-      <c r="XEW49" s="1"/>
-      <c r="XEX49" s="1"/>
-      <c r="XEY49" s="1"/>
-      <c r="XEZ49" s="1"/>
-      <c r="XFA49" s="1"/>
-      <c r="XFB49" s="1"/>
-      <c r="XFC49" s="1"/>
-      <c r="XFD49" s="1"/>
     </row>
-    <row r="52" spans="1:16384" ht="24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16370" ht="24" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="8" t="s">
         <v>65</v>
@@ -35939,14 +35173,8 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16370" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>66</v>
@@ -35959,14 +35187,8 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16370" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -35977,14 +35199,8 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16370" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>67</v>
@@ -35997,14 +35213,8 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16370" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -36015,14 +35225,8 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16384" ht="24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16370" ht="24" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>122</v>
       </c>
@@ -36039,9 +35243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90213A37-4799-EA4B-B817-7E2AEEAE26A8}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37294,7 +36498,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37700,16 +36904,323 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45456202-3407-F646-AA69-B73553088084}">
-  <dimension ref="A1:T8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76D7A28-68C0-A64C-B0D1-A33CE9CFEFF5}">
+  <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" customWidth="1"/>
+    <col min="12" max="12" width="38" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" customWidth="1"/>
+    <col min="18" max="18" width="25.5" customWidth="1"/>
+    <col min="19" max="19" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1390</v>
+      </c>
+      <c r="D3" s="4">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>85075</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>49583</v>
+      </c>
+      <c r="I3">
+        <v>9368</v>
+      </c>
+      <c r="J3">
+        <v>12687</v>
+      </c>
+      <c r="K3">
+        <v>6935</v>
+      </c>
+      <c r="L3">
+        <v>25576</v>
+      </c>
+      <c r="M3">
+        <v>10738</v>
+      </c>
+      <c r="N3">
+        <v>29001</v>
+      </c>
+      <c r="O3">
+        <v>2253</v>
+      </c>
+      <c r="P3">
+        <v>53385</v>
+      </c>
+      <c r="Q3">
+        <v>8597</v>
+      </c>
+      <c r="R3">
+        <v>18241</v>
+      </c>
+      <c r="S3">
+        <v>524</v>
+      </c>
+      <c r="T3">
+        <v>15</v>
+      </c>
+      <c r="U3">
+        <v>1860</v>
+      </c>
+      <c r="V3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2165</v>
+      </c>
+      <c r="D4" s="4">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E4" s="4">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>94894</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>42943</v>
+      </c>
+      <c r="I4">
+        <v>25508</v>
+      </c>
+      <c r="J4">
+        <v>10769</v>
+      </c>
+      <c r="K4">
+        <v>5611</v>
+      </c>
+      <c r="L4">
+        <v>33755</v>
+      </c>
+      <c r="M4">
+        <v>13742</v>
+      </c>
+      <c r="N4">
+        <v>31013</v>
+      </c>
+      <c r="O4">
+        <v>2164</v>
+      </c>
+      <c r="P4">
+        <v>54490</v>
+      </c>
+      <c r="Q4">
+        <v>31493</v>
+      </c>
+      <c r="R4">
+        <v>1761</v>
+      </c>
+      <c r="S4">
+        <v>134</v>
+      </c>
+      <c r="T4">
+        <v>22</v>
+      </c>
+      <c r="U4">
+        <v>4765</v>
+      </c>
+      <c r="V4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3821</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E5" s="4">
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <v>64884</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>59234</v>
+      </c>
+      <c r="I5">
+        <v>13830</v>
+      </c>
+      <c r="J5">
+        <v>9365</v>
+      </c>
+      <c r="K5">
+        <v>7235</v>
+      </c>
+      <c r="L5">
+        <v>18004</v>
+      </c>
+      <c r="M5">
+        <v>9037</v>
+      </c>
+      <c r="N5">
+        <v>21217</v>
+      </c>
+      <c r="O5">
+        <v>948</v>
+      </c>
+      <c r="P5">
+        <v>20685</v>
+      </c>
+      <c r="Q5">
+        <v>40100</v>
+      </c>
+      <c r="R5">
+        <v>1737</v>
+      </c>
+      <c r="S5">
+        <v>96</v>
+      </c>
+      <c r="T5">
+        <v>24</v>
+      </c>
+      <c r="U5">
+        <v>1241</v>
+      </c>
+      <c r="V5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45456202-3407-F646-AA69-B73553088084}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -37767,8 +37278,11 @@
       <c r="T1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -37829,8 +37343,11 @@
       <c r="T2">
         <v>200</v>
       </c>
+      <c r="U2" s="13" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -37892,7 +37409,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -37954,7 +37471,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>133</v>
       </c>

--- a/Model_code/Model-concept.xlsx
+++ b/Model_code/Model-concept.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/www/html/final_project/Model_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FA54E6-C40B-D349-966C-6369D6097A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DAC5D3-B11C-BB47-B584-26708304A0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="17740" windowWidth="47420" windowHeight="21780" xr2:uid="{5F6F214D-DA23-E043-B15E-0FB778161D85}"/>
+    <workbookView xWindow="7560" yWindow="1420" windowWidth="42840" windowHeight="24040" activeTab="3" xr2:uid="{5F6F214D-DA23-E043-B15E-0FB778161D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here (Cleaned data)" sheetId="4" r:id="rId1"/>
     <sheet name="Filter for &quot;technical jobs&quot;" sheetId="1" r:id="rId2"/>
     <sheet name="Groupby area_title sum() mean()" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="Sample demographics" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sample demographics" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="158">
   <si>
     <t>Abilene, TX</t>
   </si>
@@ -456,6 +457,63 @@
   <si>
     <t>Recalc this column, take in account population</t>
   </si>
+  <si>
+    <t>Computer Programming</t>
+  </si>
+  <si>
+    <t>Data Science Analyst</t>
+  </si>
+  <si>
+    <t>NON-TECH</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>zip_zcta</t>
+  </si>
+  <si>
+    <t>state_name</t>
+  </si>
+  <si>
+    <t>city_name</t>
+  </si>
+  <si>
+    <t>media_age</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Abilene demographics data is a sum of all demographic stats for all zipcodes inside Abilene TX.</t>
+  </si>
+  <si>
+    <t>Demographic row in db table</t>
+  </si>
+  <si>
+    <t>~ 150 areas</t>
+  </si>
+  <si>
+    <t>Jobs in Abilene grouped by Tech and NonTech</t>
+  </si>
+  <si>
+    <t>emp_prse = Employment percent relative standard error</t>
+  </si>
+  <si>
+    <t>~20 +</t>
+  </si>
+  <si>
+    <t>Sample of a Metropolitan area in our main DataFrame</t>
+  </si>
+  <si>
+    <t>jobs_100 =  ( tot_emp/population)    * 1000</t>
+  </si>
+  <si>
+    <t>We ignore the jobs_1000 that came with BLS data</t>
+  </si>
+  <si>
+    <t>We calculate the jobs_1000 after the tot_emp and population have been sum'd up for each area and group</t>
+  </si>
 </sst>
 </file>
 
@@ -524,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +607,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -562,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -577,6 +659,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0842B1D-DED6-2A43-8901-53B4E2A702A4}">
   <dimension ref="A1:XEP57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36904,11 +36994,1001 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D700F5-F13C-9B43-AF0A-B9F626473A74}">
+  <dimension ref="A1:U32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="43.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUM(C12,C13, C17, C18)</f>
+        <v>400</v>
+      </c>
+      <c r="D3" s="4">
+        <f>(C3/E3) * 1000</f>
+        <v>3.5398230088495577</v>
+      </c>
+      <c r="E3" s="2">
+        <v>113000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>49583</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9368</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12687</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6935</v>
+      </c>
+      <c r="K3" s="2">
+        <v>25576</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10738</v>
+      </c>
+      <c r="M3" s="2">
+        <v>29001</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2253</v>
+      </c>
+      <c r="O3" s="2">
+        <v>53385</v>
+      </c>
+      <c r="P3" s="2">
+        <v>8597</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>18241</v>
+      </c>
+      <c r="R3" s="2">
+        <v>524</v>
+      </c>
+      <c r="S3" s="2">
+        <v>15</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1860</v>
+      </c>
+      <c r="U3" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="17">
+        <f>SUM(C14:C16)</f>
+        <v>180</v>
+      </c>
+      <c r="D4" s="17">
+        <f>(C4/E4) * 1000</f>
+        <v>1.5929203539823009</v>
+      </c>
+      <c r="E4" s="2">
+        <v>113000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2">
+        <v>49583</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9368</v>
+      </c>
+      <c r="I4" s="2">
+        <v>12687</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6935</v>
+      </c>
+      <c r="K4" s="2">
+        <v>25576</v>
+      </c>
+      <c r="L4" s="2">
+        <v>10738</v>
+      </c>
+      <c r="M4" s="2">
+        <v>29001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2253</v>
+      </c>
+      <c r="O4" s="2">
+        <v>53385</v>
+      </c>
+      <c r="P4" s="2">
+        <v>8597</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>18241</v>
+      </c>
+      <c r="R4" s="2">
+        <v>524</v>
+      </c>
+      <c r="S4" s="2">
+        <v>15</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1860</v>
+      </c>
+      <c r="U4" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4">
+        <v>40</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E12" s="2">
+        <v>85075</v>
+      </c>
+      <c r="F12" s="2">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2">
+        <v>49583</v>
+      </c>
+      <c r="H12" s="2">
+        <v>9368</v>
+      </c>
+      <c r="I12" s="2">
+        <v>12687</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6935</v>
+      </c>
+      <c r="K12" s="2">
+        <v>25576</v>
+      </c>
+      <c r="L12" s="2">
+        <v>10738</v>
+      </c>
+      <c r="M12" s="2">
+        <v>29001</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2253</v>
+      </c>
+      <c r="O12" s="2">
+        <v>53385</v>
+      </c>
+      <c r="P12" s="2">
+        <v>8597</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>18241</v>
+      </c>
+      <c r="R12" s="2">
+        <v>524</v>
+      </c>
+      <c r="S12" s="2">
+        <v>15</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1860</v>
+      </c>
+      <c r="U12" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="4">
+        <v>140</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>85075</v>
+      </c>
+      <c r="F13" s="2">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2">
+        <v>49583</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9368</v>
+      </c>
+      <c r="I13" s="2">
+        <v>12687</v>
+      </c>
+      <c r="J13" s="2">
+        <v>6935</v>
+      </c>
+      <c r="K13" s="2">
+        <v>25576</v>
+      </c>
+      <c r="L13" s="2">
+        <v>10738</v>
+      </c>
+      <c r="M13" s="2">
+        <v>29001</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2253</v>
+      </c>
+      <c r="O13" s="2">
+        <v>53385</v>
+      </c>
+      <c r="P13" s="2">
+        <v>8597</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>18241</v>
+      </c>
+      <c r="R13" s="2">
+        <v>524</v>
+      </c>
+      <c r="S13" s="2">
+        <v>15</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1860</v>
+      </c>
+      <c r="U13" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="17">
+        <v>70</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1.054</v>
+      </c>
+      <c r="E14" s="2">
+        <v>85075</v>
+      </c>
+      <c r="F14" s="2">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2">
+        <v>49583</v>
+      </c>
+      <c r="H14" s="2">
+        <v>9368</v>
+      </c>
+      <c r="I14" s="2">
+        <v>12687</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6935</v>
+      </c>
+      <c r="K14" s="2">
+        <v>25576</v>
+      </c>
+      <c r="L14" s="2">
+        <v>10738</v>
+      </c>
+      <c r="M14" s="2">
+        <v>29001</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2253</v>
+      </c>
+      <c r="O14" s="2">
+        <v>53385</v>
+      </c>
+      <c r="P14" s="2">
+        <v>8597</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>18241</v>
+      </c>
+      <c r="R14" s="2">
+        <v>524</v>
+      </c>
+      <c r="S14" s="2">
+        <v>15</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1860</v>
+      </c>
+      <c r="U14" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="17">
+        <v>50</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>85075</v>
+      </c>
+      <c r="F15" s="2">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2">
+        <v>49583</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9368</v>
+      </c>
+      <c r="I15" s="2">
+        <v>12687</v>
+      </c>
+      <c r="J15" s="2">
+        <v>6935</v>
+      </c>
+      <c r="K15" s="2">
+        <v>25576</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10738</v>
+      </c>
+      <c r="M15" s="2">
+        <v>29001</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2253</v>
+      </c>
+      <c r="O15" s="2">
+        <v>53385</v>
+      </c>
+      <c r="P15" s="2">
+        <v>8597</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>18241</v>
+      </c>
+      <c r="R15" s="2">
+        <v>524</v>
+      </c>
+      <c r="S15" s="2">
+        <v>15</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1860</v>
+      </c>
+      <c r="U15" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="17">
+        <v>60</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="E16" s="2">
+        <v>85075</v>
+      </c>
+      <c r="F16" s="2">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2">
+        <v>49583</v>
+      </c>
+      <c r="H16" s="2">
+        <v>9368</v>
+      </c>
+      <c r="I16" s="2">
+        <v>12687</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6935</v>
+      </c>
+      <c r="K16" s="2">
+        <v>25576</v>
+      </c>
+      <c r="L16" s="2">
+        <v>10738</v>
+      </c>
+      <c r="M16" s="2">
+        <v>29001</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2253</v>
+      </c>
+      <c r="O16" s="2">
+        <v>53385</v>
+      </c>
+      <c r="P16" s="2">
+        <v>8597</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>18241</v>
+      </c>
+      <c r="R16" s="2">
+        <v>524</v>
+      </c>
+      <c r="S16" s="2">
+        <v>15</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1860</v>
+      </c>
+      <c r="U16" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="4">
+        <v>60</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E17" s="2">
+        <v>85075</v>
+      </c>
+      <c r="F17" s="2">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2">
+        <v>49583</v>
+      </c>
+      <c r="H17" s="2">
+        <v>9368</v>
+      </c>
+      <c r="I17" s="2">
+        <v>12687</v>
+      </c>
+      <c r="J17" s="2">
+        <v>6935</v>
+      </c>
+      <c r="K17" s="2">
+        <v>25576</v>
+      </c>
+      <c r="L17" s="2">
+        <v>10738</v>
+      </c>
+      <c r="M17" s="2">
+        <v>29001</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2253</v>
+      </c>
+      <c r="O17" s="2">
+        <v>53385</v>
+      </c>
+      <c r="P17" s="2">
+        <v>8597</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>18241</v>
+      </c>
+      <c r="R17" s="2">
+        <v>524</v>
+      </c>
+      <c r="S17" s="2">
+        <v>15</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1860</v>
+      </c>
+      <c r="U17" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="4">
+        <v>160</v>
+      </c>
+      <c r="D18" s="21">
+        <v>2.4329999999999998</v>
+      </c>
+      <c r="E18" s="2">
+        <v>85075</v>
+      </c>
+      <c r="F18" s="2">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2">
+        <v>49583</v>
+      </c>
+      <c r="H18" s="2">
+        <v>9368</v>
+      </c>
+      <c r="I18" s="2">
+        <v>12687</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6935</v>
+      </c>
+      <c r="K18" s="2">
+        <v>25576</v>
+      </c>
+      <c r="L18" s="2">
+        <v>10738</v>
+      </c>
+      <c r="M18" s="2">
+        <v>29001</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2253</v>
+      </c>
+      <c r="O18" s="2">
+        <v>53385</v>
+      </c>
+      <c r="P18" s="2">
+        <v>8597</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>18241</v>
+      </c>
+      <c r="R18" s="2">
+        <v>524</v>
+      </c>
+      <c r="S18" s="2">
+        <v>15</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1860</v>
+      </c>
+      <c r="U18" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>79601</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>12000</v>
+      </c>
+      <c r="F24" s="2">
+        <v>32</v>
+      </c>
+      <c r="G24" s="2">
+        <v>46900</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I24" s="2">
+        <v>500</v>
+      </c>
+      <c r="J24" s="2">
+        <v>500</v>
+      </c>
+      <c r="K24" s="2">
+        <v>500</v>
+      </c>
+      <c r="L24" s="2">
+        <v>500</v>
+      </c>
+      <c r="M24" s="2">
+        <v>500</v>
+      </c>
+      <c r="N24" s="2">
+        <v>500</v>
+      </c>
+      <c r="O24" s="2">
+        <v>500</v>
+      </c>
+      <c r="P24" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>500</v>
+      </c>
+      <c r="R24" s="2">
+        <v>500</v>
+      </c>
+      <c r="S24" s="2">
+        <v>500</v>
+      </c>
+      <c r="T24" s="2">
+        <v>500</v>
+      </c>
+      <c r="U24" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>79605</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>25000</v>
+      </c>
+      <c r="F25" s="2">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2">
+        <v>52000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>900</v>
+      </c>
+      <c r="I25" s="2">
+        <v>500</v>
+      </c>
+      <c r="J25" s="2">
+        <v>500</v>
+      </c>
+      <c r="K25" s="2">
+        <v>500</v>
+      </c>
+      <c r="L25" s="2">
+        <v>500</v>
+      </c>
+      <c r="M25" s="2">
+        <v>500</v>
+      </c>
+      <c r="N25" s="2">
+        <v>500</v>
+      </c>
+      <c r="O25" s="2">
+        <v>500</v>
+      </c>
+      <c r="P25" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>500</v>
+      </c>
+      <c r="R25" s="2">
+        <v>500</v>
+      </c>
+      <c r="S25" s="2">
+        <v>500</v>
+      </c>
+      <c r="T25" s="2">
+        <v>500</v>
+      </c>
+      <c r="U25" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76D7A28-68C0-A64C-B0D1-A33CE9CFEFF5}">
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36944,43 +38024,43 @@
       <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -36997,58 +38077,58 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="15">
         <v>1390</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="15">
         <v>35</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="15">
         <v>34</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>85075</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>27</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>49583</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>9368</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>12687</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>6935</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>25576</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>10738</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>29001</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>2253</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>53385</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>8597</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>18241</v>
       </c>
       <c r="S3">
@@ -37065,58 +38145,58 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="15">
         <v>2165</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="15">
         <v>37.700000000000003</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="15">
         <v>37</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>94894</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>33</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>42943</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>25508</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>10769</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>5611</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>33755</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>13742</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>31013</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>2164</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>54490</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>31493</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>1761</v>
       </c>
       <c r="S4">
@@ -37133,58 +38213,58 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="15">
         <v>3821</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="15">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="15">
         <v>89</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>64884</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>37</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>59234</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>13830</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>9365</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>7235</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>18004</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>9037</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>21217</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>948</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>20685</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>40100</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>1737</v>
       </c>
       <c r="S5">
@@ -37210,12 +38290,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45456202-3407-F646-AA69-B73553088084}">
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
